--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -260,13 +260,7 @@
     <t>Overleven in Europa</t>
   </si>
   <si>
-    <t>B3, C1</t>
-  </si>
-  <si>
     <t>Opdracht met betrekking tot de eigen omgeving in combinatie met aardrijkskundige vaardigheden</t>
-  </si>
-  <si>
-    <t>A1, A2, E2, F</t>
   </si>
   <si>
     <t>PW Arm en Rijk H1en 2</t>
@@ -275,28 +269,16 @@
     <t>Arm en Rijk</t>
   </si>
   <si>
-    <t>B1, B2</t>
-  </si>
-  <si>
     <t>PW Systeem Aarde</t>
   </si>
   <si>
     <t>Katern Systeem Aarde</t>
   </si>
   <si>
-    <t>C2, C3</t>
-  </si>
-  <si>
     <t>Katern Wonen in Nederland</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Katern BraziliÃ«</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
   </si>
   <si>
     <t>A</t>
@@ -320,22 +302,10 @@
     <t>Katern Arm en Rijk</t>
   </si>
   <si>
-    <t>A1, B2</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>Geografische Vaardigheden gericht op katern Klimaatvraagstukken</t>
   </si>
   <si>
-    <t>A1, C2</t>
-  </si>
-  <si>
     <t>Opdracht en presentatie aan de hand van een onderzoek m.b.t. een fysisch geografisch onderdeel van klimaatvraagstukken in de eigen omgeving</t>
-  </si>
-  <si>
-    <t>C2, A2, E2</t>
   </si>
   <si>
     <t>Katern Wonen in Nederland (H1 en H2)</t>
@@ -344,16 +314,10 @@
     <t>Katern Wonen in Nederland en Globalisering</t>
   </si>
   <si>
-    <t>E1, B1</t>
-  </si>
-  <si>
     <t>Katern Zuid-Amerika</t>
   </si>
   <si>
     <t>Examenstof: Globalisering, Systeem Aarde, Zuid-Amerika, Wonen in Nederland en vaardigheden</t>
-  </si>
-  <si>
-    <t>A1, B1, C1, D1, E1</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1378,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I6" s="27">
         <v>1</v>
@@ -1395,9 +1359,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -1412,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I7" s="27">
         <v>2</v>
@@ -1431,9 +1393,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -1448,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I8" s="27">
         <v>2</v>
@@ -1467,9 +1427,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -1485,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I9" s="27">
         <v>3</v>
@@ -1504,9 +1462,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -1514,7 +1470,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1522,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" s="27">
         <v>2</v>
@@ -1541,9 +1497,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -1559,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I11" s="27">
         <v>3</v>
@@ -1580,9 +1534,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2284,7 +2236,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2398,7 +2350,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2553,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I18" s="27">
         <v>1</v>
@@ -2570,9 +2522,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -2581,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I19" s="27">
         <v>2</v>
@@ -2600,9 +2550,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -2611,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I20" s="27">
         <v>3</v>
@@ -2632,9 +2580,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -2643,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I21" s="27">
         <v>3</v>
@@ -2664,9 +2610,7 @@
       <c r="O21" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P21" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
       <c r="D22" s="2"/>
@@ -2675,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I22" s="27">
         <v>3</v>
@@ -2694,9 +2638,7 @@
       <c r="O22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="32" t="s">
-        <v>102</v>
-      </c>
+      <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
       <c r="D23" s="2"/>
@@ -2705,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I23" s="27">
         <v>3</v>
@@ -2726,9 +2668,7 @@
       <c r="O23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P23" s="32"/>
     </row>
     <row r="25" spans="1:17">
       <c r="C25" s="9" t="s">
@@ -3202,7 +3142,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3316,7 +3256,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3676,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3695,9 +3635,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3706,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3725,9 +3663,7 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
@@ -3736,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3755,9 +3691,7 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32" t="s">
-        <v>108</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4196,7 +4130,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5151,7 +5085,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5967,7 +5901,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6783,7 +6717,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7522,9 +7456,7 @@
       <c r="O6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
@@ -7560,9 +7492,7 @@
       <c r="O7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="32" t="s">
-        <v>77</v>
-      </c>
+      <c r="P7" s="32"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
@@ -7577,7 +7507,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="27">
         <v>3</v>
@@ -7596,9 +7526,7 @@
       <c r="O8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -7614,7 +7542,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" s="27">
         <v>2</v>
@@ -7633,9 +7561,7 @@
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -7643,7 +7569,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7651,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I10" s="27">
         <v>3</v>
@@ -7672,9 +7598,7 @@
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32" t="s">
-        <v>82</v>
-      </c>
+      <c r="P10" s="32"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -7690,7 +7614,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27">
         <v>2</v>
@@ -7709,9 +7633,7 @@
       <c r="O11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="32">
-        <v>0</v>
-      </c>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -8527,7 +8449,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8682,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8701,9 +8623,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8712,7 +8632,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8731,9 +8651,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
@@ -8742,7 +8660,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
@@ -8761,9 +8679,7 @@
       <c r="O20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="32" t="s">
-        <v>89</v>
-      </c>
+      <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9407,7 +9323,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.63337963</v>
+        <v>44335.8084375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -278,7 +278,7 @@
     <t>Katern Wonen in Nederland</t>
   </si>
   <si>
-    <t>Katern BraziliÃ«</t>
+    <t>Katern Brazilië</t>
   </si>
   <si>
     <t>A</t>
@@ -1336,7 +1336,9 @@
       <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>180</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1368,7 +1370,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>181</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1402,7 +1406,9 @@
       <c r="B8" s="2">
         <v>40</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>182</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1437,7 +1443,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>183</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1470,9 +1478,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>184</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1507,7 +1517,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>185</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -1556,7 +1568,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>97</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1576,9 +1590,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1770,7 +1782,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>98</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1975,7 +1989,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>99</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2350,7 +2366,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2422,7 +2438,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2499,7 +2517,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>186</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2525,7 +2545,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>187</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>1</v>
@@ -2553,7 +2575,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>188</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -2583,7 +2607,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>189</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -2613,7 +2639,9 @@
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
         <v>3</v>
@@ -2641,7 +2669,9 @@
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>191</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="G23" s="27">
         <v>4</v>
@@ -2674,7 +2704,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>101</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2687,9 +2719,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2881,7 +2911,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>102</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3256,7 +3288,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3328,7 +3360,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>103</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3540,7 +3574,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>104</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3610,7 +3646,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>192</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3638,7 +3676,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>193</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3666,7 +3706,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>194</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>3</v>
@@ -3763,7 +3805,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>105</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3776,9 +3820,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4130,7 +4172,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5085,7 +5127,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5901,7 +5943,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6717,7 +6759,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7431,7 +7473,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>171</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7465,7 +7509,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>172</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7501,7 +7547,9 @@
       <c r="B8" s="2">
         <v>38</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>173</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7536,7 +7584,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>174</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>2</v>
@@ -7569,9 +7619,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>175</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>3</v>
@@ -7608,7 +7660,9 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>176</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" s="27">
         <v>4</v>
@@ -7655,7 +7709,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>93</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7675,9 +7731,7 @@
         <f>4+B11-B7</f>
         <v>4</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -7869,7 +7923,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>94</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8449,7 +8505,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8521,7 +8577,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>95</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8598,7 +8656,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>177</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8626,7 +8686,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>178</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8654,7 +8716,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>179</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -8751,7 +8815,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>96</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8764,9 +8830,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9323,7 +9387,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.8084375</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,37 @@
     <t>AK</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bronnen van Energie, Arm en Rijk, Grenzen en Identiteit
+</t>
+  </si>
+  <si>
+    <t>AK/K/1, AK/K/2, AK/K/5, AK/K/7, AK/K/9, AK/V,2, AK/V/4, AK/V/6, AK/V/7, AK/V/8</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AK/K/3, AK/K/6, AK/V/3 </t>
+  </si>
+  <si>
+    <t>Bevolking en ruimte</t>
+  </si>
+  <si>
+    <t>AK/K/3, AK/K/8, AK/V/5</t>
+  </si>
+  <si>
+    <t>Weer en klimaat</t>
+  </si>
+  <si>
+    <t>AK/K/3, AK/K/4, AK/V/1</t>
+  </si>
+  <si>
+    <t>Weerbericht</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -260,27 +292,45 @@
     <t>Overleven in Europa</t>
   </si>
   <si>
+    <t>B3, C1</t>
+  </si>
+  <si>
     <t>Opdracht met betrekking tot de eigen omgeving in combinatie met aardrijkskundige vaardigheden</t>
   </si>
   <si>
+    <t>A1, A2, E2, F</t>
+  </si>
+  <si>
     <t>PW Arm en Rijk H1en 2</t>
   </si>
   <si>
     <t>Arm en Rijk</t>
   </si>
   <si>
+    <t>B1, B2</t>
+  </si>
+  <si>
     <t>PW Systeem Aarde</t>
   </si>
   <si>
     <t>Katern Systeem Aarde</t>
   </si>
   <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
     <t>Katern Wonen in Nederland</t>
   </si>
   <si>
+    <t>E1</t>
+  </si>
+  <si>
     <t>Katern Brazilië</t>
   </si>
   <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -302,22 +352,40 @@
     <t>Katern Arm en Rijk</t>
   </si>
   <si>
+    <t>A1, B2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>Geografische Vaardigheden gericht op katern Klimaatvraagstukken</t>
   </si>
   <si>
+    <t>A1, C2</t>
+  </si>
+  <si>
     <t>Opdracht en presentatie aan de hand van een onderzoek m.b.t. een fysisch geografisch onderdeel van klimaatvraagstukken in de eigen omgeving</t>
   </si>
   <si>
+    <t>C2, A2, E2</t>
+  </si>
+  <si>
     <t>Katern Wonen in Nederland (H1 en H2)</t>
   </si>
   <si>
     <t>Katern Wonen in Nederland en Globalisering</t>
   </si>
   <si>
+    <t>E1, B1</t>
+  </si>
+  <si>
     <t>Katern Zuid-Amerika</t>
   </si>
   <si>
     <t>Examenstof: Globalisering, Systeem Aarde, Zuid-Amerika, Wonen in Nederland en vaardigheden</t>
+  </si>
+  <si>
+    <t>A1, B1, C1, D1, E1</t>
   </si>
 </sst>
 </file>
@@ -1246,12 +1314,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1273,25 +1341,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>AK leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>22</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1333,33 +1397,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2">
-        <v>180</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1367,35 +1423,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>181</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="27">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1403,35 +1449,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>182</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>50</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1441,34 +1477,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>183</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="27">
-        <v>3</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1478,34 +1506,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>184</v>
-      </c>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>50</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1517,34 +1537,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>185</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="27">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>100</v>
-      </c>
+      <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -1563,17 +1573,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>97</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1588,7 +1596,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
+        <v>2024</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -1605,7 +1613,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>AK leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1782,12 +1790,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>98</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1812,7 +1818,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>AK leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1989,12 +1995,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>99</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2068,44 +2072,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2169,7 +2135,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2200,7 +2166,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>AK leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>AK leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2252,26 +2218,32 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="2">
+        <v>180</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -2280,26 +2252,34 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>181</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
+      <c r="O7" s="31">
+        <v>0</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -2308,26 +2288,34 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>182</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>50</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
+      <c r="O8" s="31">
+        <v>0</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -2337,28 +2325,38 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>183</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="27">
+        <v>3</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="31">
+        <v>1</v>
+      </c>
       <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
@@ -2366,26 +2364,34 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>184</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>50</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
+      <c r="O10" s="31">
+        <v>0</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -2397,26 +2403,38 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>185</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="27">
+        <v>3</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>100</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="31">
+        <v>1</v>
+      </c>
       <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
@@ -2433,17 +2451,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2458,7 +2476,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -2475,7 +2493,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>AK leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>AK leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2517,186 +2535,134 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>186</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" s="27">
-        <v>1</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>187</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>1</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>50</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>188</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="27">
-        <v>3</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>189</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" s="27">
-        <v>3</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2">
-        <v>190</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="27">
-        <v>3</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="27">
-        <v>3</v>
-      </c>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K22" s="30"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="31">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P22" s="32"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2">
-        <v>191</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="27">
-        <v>4</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I23" s="27">
-        <v>3</v>
-      </c>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" s="30"/>
-      <c r="L23" s="27">
-        <v>100</v>
-      </c>
+      <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
     </row>
@@ -2705,11 +2671,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2734,7 +2700,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>AK leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>AK leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2912,11 +2878,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3049,6 +3015,936 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>AK leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>AK leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>186</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="27">
+        <v>1</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>187</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>50</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>188</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="27">
+        <v>3</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>3</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>189</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>190</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="27">
+        <v>3</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2">
+        <v>191</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27">
+        <v>4</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" s="27">
+        <v>3</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27">
+        <v>100</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="31">
+        <v>2</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>101</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>AK leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>102</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3174,7 +4070,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3288,7 +4184,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3654,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3671,9 +4567,11 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2">
@@ -3684,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3701,9 +4599,11 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2">
@@ -3714,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
@@ -3731,9 +4631,11 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="32" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
@@ -4172,7 +5074,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5127,7 +6029,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5943,7 +6845,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6567,12 +7469,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6594,6 +7496,917 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>AK leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>91</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>AK leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>166</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>167</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>1</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>5</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>168</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>5</v>
+      </c>
+      <c r="O20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>169</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="31">
+        <v>5</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2">
+        <v>170</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27">
+        <v>3</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="31">
+        <v>3</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>92</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>AK leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6759,7 +8572,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7339,926 +9152,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>AK leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>171</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>2</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>172</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>3</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31">
-        <v>1</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2">
-        <v>173</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>3</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31">
-        <v>1</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>174</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>2</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>50</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>175</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>3</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>3</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31">
-        <v>1</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2">
-        <v>176</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="27">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27">
-        <v>50</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>93</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>AK leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>94</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>AK leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8308,7 +9201,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8339,7 +9232,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>AK leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>AK leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8391,26 +9284,34 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="2">
+        <v>171</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="27">
+        <v>2</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
+      <c r="O6" s="31">
+        <v>0</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -8419,56 +9320,78 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>172</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="27">
+        <v>3</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="31">
+        <v>1</v>
+      </c>
       <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>39</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D8" s="2">
+        <v>173</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="27">
+        <v>3</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="31">
+        <v>1</v>
+      </c>
       <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
@@ -8476,26 +9399,34 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>174</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>50</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
+      <c r="O9" s="31">
+        <v>0</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -8505,28 +9436,40 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>175</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="27">
+        <v>3</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1</v>
+      </c>
       <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
@@ -8536,24 +9479,32 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>176</v>
+      </c>
       <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="27">
+        <v>2</v>
+      </c>
       <c r="J11" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
+      <c r="L11" s="27">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
+      <c r="O11" s="31">
+        <v>0</v>
       </c>
       <c r="P11" s="32"/>
     </row>
@@ -8572,17 +9523,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8597,7 +9548,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8614,7 +9565,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>AK leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>AK leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8656,92 +9607,68 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>177</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>178</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>179</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="31">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
@@ -8816,11 +9743,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8845,7 +9772,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>AK leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>AK leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9025,7 +9952,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9195,12 +10122,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9222,21 +10149,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>AK leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>22</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9278,7 +10209,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9304,7 +10237,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9330,7 +10265,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>39</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9358,7 +10295,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9387,7 +10324,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9454,15 +10391,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>95</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9477,7 +10416,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9494,7 +10433,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>AK leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9536,70 +10475,100 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>177</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>94</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="31">
+        <v>2</v>
+      </c>
       <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>178</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="31">
+        <v>2</v>
+      </c>
       <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>179</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="31">
+        <v>2</v>
+      </c>
       <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
@@ -9671,10 +10640,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>96</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9699,7 +10670,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>AK leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9879,7 +10850,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  AK leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9953,6 +10924,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -1609,7 +1609,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2345,7 +2345,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3455,7 +3455,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4612,7 +4612,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5733,7 +5733,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6808,7 +6808,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2">
         <v>175</v>
@@ -7944,7 +7944,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9052,7 +9052,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10132,7 +10132,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809212963</v>
+        <v>44341.376597222</v>
       </c>
       <c r="D10" s="2">
         <v>184</v>
@@ -11264,7 +11264,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2838,75 +2838,105 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>998</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="L30" s="23">
+        <v>100</v>
+      </c>
       <c r="M30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N30" s="27">
+        <v>3</v>
+      </c>
       <c r="O30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>109</v>
+      </c>
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>999</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>110</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="L31" s="23">
+        <v>100</v>
+      </c>
       <c r="M31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4</v>
+      </c>
       <c r="O31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1000</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>3</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>111</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
       <c r="O32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
@@ -3437,7 +3467,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4709,7 +4739,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4920,123 +4950,169 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>984</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>70</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>985</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>5</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>72</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>986</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>5</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>74</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>987</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>5</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>988</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I22" s="23"/>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>3</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
@@ -5784,7 +5860,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6785,25 +6861,33 @@
       <c r="B6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>992</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -6815,27 +6899,39 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>993</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="23">
+        <v>3</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="27">
+        <v>1</v>
+      </c>
       <c r="O7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>81</v>
+      </c>
       <c r="Q7" s="37"/>
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
@@ -6845,27 +6941,37 @@
       <c r="B8" s="2">
         <v>245</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>994</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="23">
+        <v>3</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N8" s="27">
+        <v>1</v>
+      </c>
       <c r="O8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q8" s="37"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
@@ -6876,25 +6982,33 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>995</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>2</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>50</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
-        <v>5</v>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="28"/>
       <c r="Q9" s="37"/>
@@ -6905,29 +7019,41 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629884259</v>
+      </c>
+      <c r="D10" s="2">
+        <v>996</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>3</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="23">
+        <v>3</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="27">
+        <v>1</v>
+      </c>
       <c r="O10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
@@ -6938,25 +7064,33 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>997</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="23">
+        <v>2</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>50</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="27"/>
-      <c r="O11" s="27" t="s">
-        <v>5</v>
+      <c r="O11" s="27">
+        <v>0</v>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="37"/>
@@ -8021,7 +8155,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2">
         <v>175</v>
@@ -8252,75 +8386,105 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>989</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N18" s="27">
+        <v>2</v>
+      </c>
       <c r="O18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>89</v>
+      </c>
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>990</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="27">
+        <v>2</v>
+      </c>
       <c r="O19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>991</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>2</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
@@ -9119,7 +9283,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10107,25 +10271,31 @@
       <c r="B6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1007</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="26"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
-      <c r="O6" s="27" t="s">
-        <v>5</v>
+      <c r="O6" s="27">
+        <v>0</v>
       </c>
       <c r="P6" s="28"/>
       <c r="Q6" s="37"/>
@@ -10137,25 +10307,33 @@
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1008</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="23">
+        <v>2</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="s">
-        <v>5</v>
+      <c r="O7" s="27">
+        <v>0</v>
       </c>
       <c r="P7" s="28"/>
       <c r="Q7" s="37"/>
@@ -10167,25 +10345,33 @@
       <c r="B8" s="2">
         <v>246</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1009</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>50</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
-      <c r="O8" s="27" t="s">
-        <v>5</v>
+      <c r="O8" s="27">
+        <v>0</v>
       </c>
       <c r="P8" s="28"/>
       <c r="Q8" s="37"/>
@@ -10198,27 +10384,37 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1010</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="26"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="27">
+        <v>1</v>
+      </c>
       <c r="O9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
@@ -10227,27 +10423,35 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629884259</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1011</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>50</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
-      <c r="O10" s="27" t="s">
-        <v>5</v>
+      <c r="O10" s="27">
+        <v>0</v>
       </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="37"/>
@@ -10260,27 +10464,39 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>1012</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23">
+        <v>4</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="23">
+        <v>3</v>
+      </c>
       <c r="J11" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23">
+        <v>100</v>
+      </c>
       <c r="M11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="27">
+        <v>1</v>
+      </c>
       <c r="O11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="Q11" s="37"/>
     </row>
     <row r="12" spans="1:17">
@@ -11339,7 +11555,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382673611</v>
+        <v>44342.629884259</v>
       </c>
       <c r="D10" s="2">
         <v>184</v>
@@ -11570,21 +11786,27 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1001</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -11594,21 +11816,29 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1002</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>50</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -11618,99 +11848,145 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1003</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="23">
+        <v>3</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N20" s="27">
+        <v>3</v>
+      </c>
       <c r="O20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1004</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="23">
+        <v>3</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N21" s="27">
+        <v>1</v>
+      </c>
       <c r="O21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>1005</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="23">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="23">
+        <v>3</v>
+      </c>
       <c r="J22" s="25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K22" s="26"/>
       <c r="L22" s="23"/>
       <c r="M22" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N22" s="27">
+        <v>1</v>
+      </c>
       <c r="O22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>1006</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="37"/>
-      <c r="G23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="23">
+        <v>4</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="23">
+        <v>3</v>
+      </c>
       <c r="J23" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
+      <c r="L23" s="23">
+        <v>100</v>
+      </c>
       <c r="M23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="27">
+        <v>2</v>
+      </c>
       <c r="O23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>91</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17">

--- a/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/AK PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -916,6 +916,9 @@
   <si>
     <t xml:space="preserve">Bronnen van Energie, Arm en Rijk, Grenzen en Identiteit
 </t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>AK/K/1, AK/K/2, AK/K/5, AK/K/7, AK/K/9, AK/V,2, AK/V/4, AK/V/6, AK/V/7, AK/V/8</t>
@@ -2252,7 +2255,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2606,7 +2609,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2978,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -2993,7 +2996,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -3066,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -3083,7 +3086,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -3156,7 +3159,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -3175,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -3250,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3269,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -3344,7 +3347,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -3361,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -3436,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23" s="45">
         <v>3</v>
@@ -3455,10 +3458,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
@@ -3693,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3710,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3785,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -3802,10 +3805,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -3877,7 +3880,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -3894,10 +3897,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -4580,7 +4583,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4934,7 +4937,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5961,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5978,10 +5981,10 @@
         <v>3</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6053,7 +6056,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -6070,10 +6073,10 @@
         <v>4</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -6145,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6162,10 +6165,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -7377,7 +7380,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541076389</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7764,10 +7767,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7839,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7856,10 +7859,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7931,7 +7934,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7948,10 +7951,10 @@
         <v>5</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8023,7 +8026,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8040,10 +8043,10 @@
         <v>5</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8115,7 +8118,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -8130,10 +8133,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -9659,7 +9662,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10046,10 +10049,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -10121,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -10138,10 +10141,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -10213,7 +10216,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -10230,10 +10233,10 @@
         <v>5</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -10305,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -10322,10 +10325,10 @@
         <v>5</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -10397,7 +10400,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
@@ -10412,10 +10415,10 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -11587,7 +11590,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>992</v>
@@ -11597,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11613,8 +11616,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11693,7 +11696,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -11712,10 +11715,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -11793,7 +11796,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -11810,10 +11813,10 @@
         <v>2</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -11892,7 +11895,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11908,8 +11911,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11979,7 +11982,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>996</v>
@@ -11989,7 +11992,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -12008,10 +12011,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12090,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12106,8 +12109,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -13881,7 +13884,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2">
         <v>171</v>
@@ -13891,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -13907,8 +13910,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -13987,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -14006,10 +14009,10 @@
         <v>1</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -14087,7 +14090,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -14104,10 +14107,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R8" s="7">
         <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
@@ -14186,7 +14189,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14202,8 +14205,8 @@
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
-      <c r="O9" s="31">
-        <v>0</v>
+      <c r="O9" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14273,7 +14276,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2">
         <v>175</v>
@@ -14283,7 +14286,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -14302,10 +14305,10 @@
         <v>1</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14384,7 +14387,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14400,8 +14403,8 @@
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
-      <c r="O11" s="31">
-        <v>0</v>
+      <c r="O11" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14665,7 +14668,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14682,10 +14685,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14757,7 +14760,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -14774,10 +14777,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14849,7 +14852,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -14866,10 +14869,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -16205,7 +16208,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16559,7 +16562,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.45130787</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16931,7 +16934,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16948,10 +16951,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17023,7 +17026,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17040,10 +17043,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17115,7 +17118,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -17132,10 +17135,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -18471,7 +18474,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>1007</v>
@@ -18481,7 +18484,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -18495,8 +18498,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18575,7 +18578,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18591,8 +18594,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18671,7 +18674,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18687,8 +18690,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18768,7 +18771,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -18785,10 +18788,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -18857,7 +18860,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2">
         <v>1011</v>
@@ -18867,7 +18870,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -18883,8 +18886,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -18964,7 +18967,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -18983,10 +18986,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -20761,7 +20764,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2">
         <v>180</v>
@@ -20771,7 +20774,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -20785,8 +20788,8 @@
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
-      <c r="O6" s="31">
-        <v>0</v>
+      <c r="O6" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20865,7 +20868,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -20881,8 +20884,8 @@
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
-      <c r="O7" s="31">
-        <v>0</v>
+      <c r="O7" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20961,7 +20964,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -20977,8 +20980,8 @@
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
-      <c r="O8" s="31">
-        <v>0</v>
+      <c r="O8" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21058,7 +21061,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -21075,10 +21078,10 @@
         <v>1</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -21147,7 +21150,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541087963</v>
+        <v>44378.451319444</v>
       </c>
       <c r="D10" s="2">
         <v>184</v>
@@ -21157,7 +21160,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21173,8 +21176,8 @@
         <v>11</v>
       </c>
       <c r="N10" s="46"/>
-      <c r="O10" s="31">
-        <v>0</v>
+      <c r="O10" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21254,7 +21257,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -21273,10 +21276,10 @@
         <v>1</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="R11" s="7">
         <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
@@ -21539,7 +21542,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I18" s="45">
         <v>1</v>
@@ -21554,7 +21557,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -21627,7 +21630,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -21644,7 +21647,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -21717,7 +21720,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="45">
         <v>3</v>
@@ -21736,10 +21739,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -21811,7 +21814,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21830,10 +21833,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -21905,7 +21908,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>3</v>
@@ -21922,10 +21925,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -21997,7 +22000,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I23" s="45">
         <v>3</v>
@@ -22016,10 +22019,10 @@
         <v>2</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
